--- a/Documents/expenditure_of_time.xlsx
+++ b/Documents/expenditure_of_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>open ponits</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>specify requirements in general</t>
+  </si>
+  <si>
+    <t>meeting with client</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>evaluation of technology; activity diagram, data model</t>
   </si>
 </sst>
 </file>
@@ -44,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,16 +96,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,24 +411,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +451,20 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41660</v>
       </c>
@@ -442,6 +482,35 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/expenditure_of_time.xlsx
+++ b/Documents/expenditure_of_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -39,9 +39,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>open ponits</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>evaluation of technology; activity diagram, data model</t>
+  </si>
+  <si>
+    <t>open points</t>
   </si>
 </sst>
 </file>
@@ -411,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -452,16 +452,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -507,10 +507,27 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41662</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/expenditure_of_time.xlsx
+++ b/Documents/expenditure_of_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>open points</t>
+  </si>
+  <si>
+    <t>activity diagram, data model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation of technology; Access backend; MVP implementation; </t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +523,9 @@
       <c r="A4" s="1">
         <v>41662</v>
       </c>
+      <c r="B4" s="2">
+        <v>4.5</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -528,6 +537,12 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/expenditure_of_time.xlsx
+++ b/Documents/expenditure_of_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>open points</t>
+  </si>
+  <si>
+    <t>Datamodel, Activity Diagram</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +520,9 @@
       <c r="A4" s="1">
         <v>41662</v>
       </c>
+      <c r="B4" s="2">
+        <v>3.75</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -528,6 +534,9 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/expenditure_of_time.xlsx
+++ b/Documents/expenditure_of_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Datamodel, Activity Diagram</t>
+  </si>
+  <si>
+    <t>Enhancement Data Model &amp; Activity Diagram, Technology check "Appguyver, steroids"</t>
+  </si>
+  <si>
+    <t>simple custom quizduell app with steroids-technology</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -539,6 +545,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/expenditure_of_time.xlsx
+++ b/Documents/expenditure_of_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>simple custom quizduell app with steroids-technology</t>
+  </si>
+  <si>
+    <t>steroids evaluation</t>
+  </si>
+  <si>
+    <t>serverinterface definition, technology decision, GUI Prototyping</t>
+  </si>
+  <si>
+    <t>GUI Prototypeing, Decision PHONEGAP Prototype (REQ), Server Interface</t>
+  </si>
+  <si>
+    <t>technology decision, phonegap prototype development, server core functionality development</t>
   </si>
 </sst>
 </file>
@@ -420,11 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +578,55 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
